--- a/3IG/Allemand/Résumé (1).xlsx
+++ b/3IG/Allemand/Résumé (1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-444" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-444" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="unit1-8" sheetId="1" r:id="rId1"/>
@@ -2498,9 +2498,6 @@
     <t>spaB haben</t>
   </si>
   <si>
-    <t>have fun</t>
-  </si>
-  <si>
     <t>übt</t>
   </si>
   <si>
@@ -2567,9 +2564,6 @@
     <t>frais</t>
   </si>
   <si>
-    <t>Verwendet</t>
-  </si>
-  <si>
     <t>utiliser</t>
   </si>
   <si>
@@ -3783,6 +3777,12 @@
   </si>
   <si>
     <t>faire les courses ( imparfait )</t>
+  </si>
+  <si>
+    <t>s'amuser</t>
+  </si>
+  <si>
+    <t>Verwenden</t>
   </si>
 </sst>
 </file>
@@ -4694,6 +4694,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4757,24 +4775,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4787,22 +4787,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4825,6 +4816,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5270,12 +5270,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
       <c r="E1" s="21"/>
       <c r="F1" s="28"/>
       <c r="G1" s="17"/>
@@ -5284,78 +5284,78 @@
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
       <c r="L1" s="17"/>
-      <c r="M1" s="86" t="s">
+      <c r="M1" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="88"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="22"/>
       <c r="F2" s="28"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="107" t="s">
         <v>390</v>
       </c>
-      <c r="I2" s="102"/>
+      <c r="I2" s="108"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
       <c r="L2" s="17"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="91"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="97"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="22"/>
       <c r="F3" s="28"/>
       <c r="G3" s="17"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
       <c r="L3" s="17"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="91"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="97"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="23"/>
       <c r="F4" s="28"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="17"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="94"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="100"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="106"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="112"/>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
@@ -5434,7 +5434,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="101" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="1">
@@ -5473,7 +5473,7 @@
       <c r="Q8" s="50"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="96"/>
+      <c r="A9" s="102"/>
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -5512,7 +5512,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="96"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -5545,7 +5545,7 @@
       <c r="Q10" s="50"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="96"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="1">
         <v>4</v>
       </c>
@@ -5574,7 +5574,7 @@
       <c r="Q11" s="50"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="96"/>
+      <c r="A12" s="102"/>
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -5609,7 +5609,7 @@
       <c r="Q12" s="61"/>
     </row>
     <row r="13" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="1">
         <v>6</v>
       </c>
@@ -5640,7 +5640,7 @@
       <c r="Q13" s="57"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="96"/>
+      <c r="A14" s="102"/>
       <c r="B14" s="1">
         <v>7</v>
       </c>
@@ -5662,16 +5662,16 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
-      <c r="M14" s="86" t="s">
+      <c r="M14" s="92" t="s">
         <v>413</v>
       </c>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="88"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="96"/>
+      <c r="A15" s="102"/>
       <c r="B15" s="1">
         <v>8</v>
       </c>
@@ -5693,14 +5693,14 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="91"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="96"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="1">
         <v>9</v>
       </c>
@@ -5722,14 +5722,14 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="91"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
+      <c r="A17" s="102"/>
       <c r="B17" s="1">
         <v>10</v>
       </c>
@@ -5745,14 +5745,14 @@
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="91"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="96"/>
+      <c r="A18" s="102"/>
       <c r="B18" s="1">
         <v>11</v>
       </c>
@@ -5768,14 +5768,14 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="100"/>
     </row>
     <row r="19" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="96"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="1">
         <v>12</v>
       </c>
@@ -5799,7 +5799,7 @@
       <c r="Q19" s="32"/>
     </row>
     <row r="20" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="96"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="1">
         <v>13</v>
       </c>
@@ -5823,7 +5823,7 @@
       <c r="Q20" s="32"/>
     </row>
     <row r="21" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="96"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="1">
         <v>14</v>
       </c>
@@ -5850,7 +5850,7 @@
       <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="1:17" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="96"/>
+      <c r="A22" s="102"/>
       <c r="B22" s="1">
         <v>15</v>
       </c>
@@ -5883,7 +5883,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="96"/>
+      <c r="A23" s="102"/>
       <c r="B23" s="1">
         <v>16</v>
       </c>
@@ -5918,7 +5918,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="96"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="1">
         <v>17</v>
       </c>
@@ -5953,7 +5953,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="96"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="1">
         <v>18</v>
       </c>
@@ -5988,7 +5988,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="96"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="1">
         <v>19</v>
       </c>
@@ -6023,7 +6023,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="96"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="1">
         <v>20</v>
       </c>
@@ -6048,7 +6048,7 @@
       <c r="Q27" s="35"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="96"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="1">
         <v>21</v>
       </c>
@@ -6075,7 +6075,7 @@
       <c r="Q28" s="35"/>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="96"/>
+      <c r="A29" s="102"/>
       <c r="B29" s="1">
         <v>22</v>
       </c>
@@ -6106,7 +6106,7 @@
       <c r="Q29" s="35"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="96"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="1">
         <v>23</v>
       </c>
@@ -6139,7 +6139,7 @@
       <c r="Q30" s="35"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="96"/>
+      <c r="A31" s="102"/>
       <c r="B31" s="1">
         <v>24</v>
       </c>
@@ -6172,7 +6172,7 @@
       <c r="Q31" s="35"/>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="96"/>
+      <c r="A32" s="102"/>
       <c r="B32" s="1">
         <v>25</v>
       </c>
@@ -6205,7 +6205,7 @@
       <c r="Q32" s="35"/>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="96"/>
+      <c r="A33" s="102"/>
       <c r="B33" s="1">
         <v>26</v>
       </c>
@@ -6238,7 +6238,7 @@
       <c r="Q33" s="35"/>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="96"/>
+      <c r="A34" s="102"/>
       <c r="B34" s="1">
         <v>27</v>
       </c>
@@ -6263,7 +6263,7 @@
       <c r="Q34" s="35"/>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="96"/>
+      <c r="A35" s="102"/>
       <c r="B35" s="1">
         <v>28</v>
       </c>
@@ -6288,7 +6288,7 @@
       <c r="Q35" s="35"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="96"/>
+      <c r="A36" s="102"/>
       <c r="B36" s="1">
         <v>29</v>
       </c>
@@ -6319,7 +6319,7 @@
       <c r="Q36" s="37"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="96"/>
+      <c r="A37" s="102"/>
       <c r="B37" s="1">
         <v>30</v>
       </c>
@@ -6352,7 +6352,7 @@
       <c r="Q37" s="39"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="96"/>
+      <c r="A38" s="102"/>
       <c r="B38" s="1">
         <v>31</v>
       </c>
@@ -6387,7 +6387,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="96"/>
+      <c r="A39" s="102"/>
       <c r="B39" s="1">
         <v>32</v>
       </c>
@@ -6418,7 +6418,7 @@
       <c r="Q39" s="39"/>
     </row>
     <row r="40" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="97"/>
+      <c r="A40" s="103"/>
       <c r="B40" s="9">
         <v>33</v>
       </c>
@@ -6442,14 +6442,14 @@
       <c r="Q40" s="42"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="98" t="s">
+      <c r="A41" s="104" t="s">
         <v>160</v>
       </c>
       <c r="B41" s="1">
         <v>34</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>91</v>
@@ -6462,12 +6462,12 @@
       <c r="L41" s="17"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="99"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="1">
         <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>92</v>
@@ -6480,12 +6480,12 @@
       <c r="L42" s="17"/>
     </row>
     <row r="43" spans="1:17" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="99"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="1">
         <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>93</v>
@@ -6498,12 +6498,12 @@
       <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="99"/>
+      <c r="A44" s="105"/>
       <c r="B44" s="1">
         <v>37</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>94</v>
@@ -6516,12 +6516,12 @@
       <c r="L44" s="17"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="99"/>
+      <c r="A45" s="105"/>
       <c r="B45" s="1">
         <v>38</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>95</v>
@@ -6535,12 +6535,12 @@
       <c r="N45" s="28"/>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="99"/>
+      <c r="A46" s="105"/>
       <c r="B46" s="1">
         <v>39</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>96</v>
@@ -6554,12 +6554,12 @@
       <c r="N46" s="28"/>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="99"/>
+      <c r="A47" s="105"/>
       <c r="B47" s="1">
         <v>40</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>97</v>
@@ -6573,12 +6573,12 @@
       <c r="N47" s="28"/>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="99"/>
+      <c r="A48" s="105"/>
       <c r="B48" s="1">
         <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>98</v>
@@ -6589,21 +6589,21 @@
       <c r="J48" s="75"/>
       <c r="K48" s="75"/>
       <c r="L48" s="75"/>
-      <c r="M48" s="86" t="s">
+      <c r="M48" s="92" t="s">
         <v>617</v>
       </c>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="88"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="93"/>
+      <c r="Q48" s="94"/>
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="99"/>
+      <c r="A49" s="105"/>
       <c r="B49" s="1">
         <v>42</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>99</v>
@@ -6614,19 +6614,19 @@
       <c r="J49" s="75"/>
       <c r="K49" s="75"/>
       <c r="L49" s="75"/>
-      <c r="M49" s="89"/>
-      <c r="N49" s="90"/>
-      <c r="O49" s="90"/>
-      <c r="P49" s="90"/>
-      <c r="Q49" s="91"/>
+      <c r="M49" s="95"/>
+      <c r="N49" s="96"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="96"/>
+      <c r="Q49" s="97"/>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="99"/>
+      <c r="A50" s="105"/>
       <c r="B50" s="1">
         <v>43</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>100</v>
@@ -6637,19 +6637,19 @@
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="90"/>
-      <c r="P50" s="90"/>
-      <c r="Q50" s="91"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="96"/>
+      <c r="O50" s="96"/>
+      <c r="P50" s="96"/>
+      <c r="Q50" s="97"/>
     </row>
     <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="99"/>
+      <c r="A51" s="105"/>
       <c r="B51" s="1">
         <v>44</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>101</v>
@@ -6660,19 +6660,19 @@
       <c r="J51" s="73"/>
       <c r="K51" s="73"/>
       <c r="L51" s="73"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="90"/>
-      <c r="O51" s="90"/>
-      <c r="P51" s="90"/>
-      <c r="Q51" s="91"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="96"/>
+      <c r="O51" s="96"/>
+      <c r="P51" s="96"/>
+      <c r="Q51" s="97"/>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="99"/>
+      <c r="A52" s="105"/>
       <c r="B52" s="1">
         <v>45</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>102</v>
@@ -6690,12 +6690,12 @@
       <c r="Q52" s="32"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="99"/>
+      <c r="A53" s="105"/>
       <c r="B53" s="1">
         <v>46</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>103</v>
@@ -6717,12 +6717,12 @@
       <c r="Q53" s="32"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="99"/>
+      <c r="A54" s="105"/>
       <c r="B54" s="1">
         <v>47</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>106</v>
@@ -6740,12 +6740,12 @@
       <c r="Q54" s="32"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="99"/>
+      <c r="A55" s="105"/>
       <c r="B55" s="1">
         <v>48</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>107</v>
@@ -6773,12 +6773,12 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="99"/>
+      <c r="A56" s="105"/>
       <c r="B56" s="1">
         <v>49</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>108</v>
@@ -6800,12 +6800,12 @@
       <c r="Q56" s="32"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="99"/>
+      <c r="A57" s="105"/>
       <c r="B57" s="1">
         <v>50</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>112</v>
@@ -6823,12 +6823,12 @@
       <c r="Q57" s="32"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="99"/>
+      <c r="A58" s="105"/>
       <c r="B58" s="1">
         <v>51</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>111</v>
@@ -6858,12 +6858,12 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="99"/>
+      <c r="A59" s="105"/>
       <c r="B59" s="1">
         <v>52</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>113</v>
@@ -6878,12 +6878,12 @@
       <c r="Q59" s="32"/>
     </row>
     <row r="60" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="99"/>
+      <c r="A60" s="105"/>
       <c r="B60" s="1">
         <v>53</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>114</v>
@@ -6899,12 +6899,12 @@
       <c r="Q60" s="32"/>
     </row>
     <row r="61" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="99"/>
+      <c r="A61" s="105"/>
       <c r="B61" s="1">
         <v>54</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>115</v>
@@ -6924,12 +6924,12 @@
       <c r="Q61" s="32"/>
     </row>
     <row r="62" spans="1:17" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="99"/>
+      <c r="A62" s="105"/>
       <c r="B62" s="1">
         <v>55</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>116</v>
@@ -6949,12 +6949,12 @@
       <c r="Q62" s="32"/>
     </row>
     <row r="63" spans="1:17" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="99"/>
+      <c r="A63" s="105"/>
       <c r="B63" s="1">
         <v>56</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>117</v>
@@ -6974,12 +6974,12 @@
       <c r="Q63" s="53"/>
     </row>
     <row r="64" spans="1:17" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="99"/>
+      <c r="A64" s="105"/>
       <c r="B64" s="1">
         <v>57</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>120</v>
@@ -6990,12 +6990,12 @@
       <c r="I64" s="28"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="99"/>
+      <c r="A65" s="105"/>
       <c r="B65" s="1">
         <v>58</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>121</v>
@@ -7006,12 +7006,12 @@
       <c r="I65" s="17"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="99"/>
+      <c r="A66" s="105"/>
       <c r="B66" s="1">
         <v>59</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>122</v>
@@ -7022,12 +7022,12 @@
       <c r="I66" s="17"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="99"/>
+      <c r="A67" s="105"/>
       <c r="B67" s="1">
         <v>60</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>123</v>
@@ -7038,12 +7038,12 @@
       <c r="I67" s="43"/>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="99"/>
+      <c r="A68" s="105"/>
       <c r="B68" s="1">
         <v>61</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>148</v>
@@ -7054,12 +7054,12 @@
       <c r="I68" s="43"/>
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="99"/>
+      <c r="A69" s="105"/>
       <c r="B69" s="1">
         <v>62</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>149</v>
@@ -7070,12 +7070,12 @@
       <c r="I69" s="43"/>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="99"/>
+      <c r="A70" s="105"/>
       <c r="B70" s="1">
         <v>63</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>155</v>
@@ -7086,12 +7086,12 @@
       <c r="I70" s="43"/>
     </row>
     <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="99"/>
+      <c r="A71" s="105"/>
       <c r="B71" s="1">
         <v>64</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>156</v>
@@ -7102,12 +7102,12 @@
       <c r="I71" s="43"/>
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="99"/>
+      <c r="A72" s="105"/>
       <c r="B72" s="1">
         <v>65</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>157</v>
@@ -7118,12 +7118,12 @@
       <c r="I72" s="43"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="99"/>
+      <c r="A73" s="105"/>
       <c r="B73" s="1">
         <v>66</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>158</v>
@@ -7134,12 +7134,12 @@
       <c r="I73" s="43"/>
     </row>
     <row r="74" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="100"/>
+      <c r="A74" s="106"/>
       <c r="B74" s="8">
         <v>67</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>159</v>
@@ -7150,14 +7150,14 @@
       <c r="I74" s="43"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="112" t="s">
+      <c r="A75" s="91" t="s">
         <v>240</v>
       </c>
       <c r="B75" s="12">
         <v>68</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>172</v>
@@ -7168,12 +7168,12 @@
       <c r="I75" s="43"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="107"/>
+      <c r="A76" s="86"/>
       <c r="B76" s="1">
         <v>69</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>173</v>
@@ -7184,12 +7184,12 @@
       <c r="I76" s="43"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="107"/>
+      <c r="A77" s="86"/>
       <c r="B77" s="1">
         <v>70</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>183</v>
@@ -7200,12 +7200,12 @@
       <c r="I77" s="43"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="107"/>
+      <c r="A78" s="86"/>
       <c r="B78" s="1">
         <v>71</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>174</v>
@@ -7216,12 +7216,12 @@
       <c r="I78" s="43"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="107"/>
+      <c r="A79" s="86"/>
       <c r="B79" s="1">
         <v>72</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>175</v>
@@ -7232,12 +7232,12 @@
       <c r="I79" s="43"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="107"/>
+      <c r="A80" s="86"/>
       <c r="B80" s="1">
         <v>73</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>176</v>
@@ -7248,12 +7248,12 @@
       <c r="I80" s="43"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="107"/>
+      <c r="A81" s="86"/>
       <c r="B81" s="1">
         <v>74</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>177</v>
@@ -7264,7 +7264,7 @@
       <c r="I81" s="43"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="107"/>
+      <c r="A82" s="86"/>
       <c r="B82" s="1">
         <v>75</v>
       </c>
@@ -7280,12 +7280,12 @@
       <c r="I82" s="43"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="107"/>
+      <c r="A83" s="86"/>
       <c r="B83" s="1">
         <v>76</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>180</v>
@@ -7296,12 +7296,12 @@
       <c r="I83" s="43"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="107"/>
+      <c r="A84" s="86"/>
       <c r="B84" s="1">
         <v>77</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>181</v>
@@ -7312,12 +7312,12 @@
       <c r="I84" s="43"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="107"/>
+      <c r="A85" s="86"/>
       <c r="B85" s="1">
         <v>78</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>182</v>
@@ -7328,12 +7328,12 @@
       <c r="I85" s="43"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="107"/>
+      <c r="A86" s="86"/>
       <c r="B86" s="1">
         <v>79</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>184</v>
@@ -7344,12 +7344,12 @@
       <c r="I86" s="43"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="107"/>
+      <c r="A87" s="86"/>
       <c r="B87" s="1">
         <v>80</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>185</v>
@@ -7360,12 +7360,12 @@
       <c r="I87" s="17"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="107"/>
+      <c r="A88" s="86"/>
       <c r="B88" s="1">
         <v>81</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>186</v>
@@ -7373,12 +7373,12 @@
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="107"/>
+      <c r="A89" s="86"/>
       <c r="B89" s="1">
         <v>82</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>187</v>
@@ -7386,12 +7386,12 @@
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="107"/>
+      <c r="A90" s="86"/>
       <c r="B90" s="1">
         <v>83</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>188</v>
@@ -7400,12 +7400,12 @@
       <c r="I90" s="28"/>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="107"/>
+      <c r="A91" s="86"/>
       <c r="B91" s="1">
         <v>84</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>189</v>
@@ -7414,12 +7414,12 @@
       <c r="I91" s="28"/>
     </row>
     <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="107"/>
+      <c r="A92" s="86"/>
       <c r="B92" s="1">
         <v>85</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>190</v>
@@ -7429,12 +7429,12 @@
       <c r="J92" s="28"/>
     </row>
     <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="107"/>
+      <c r="A93" s="86"/>
       <c r="B93" s="1">
         <v>86</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>191</v>
@@ -7444,12 +7444,12 @@
       <c r="J93" s="28"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="107"/>
+      <c r="A94" s="86"/>
       <c r="B94" s="1">
         <v>87</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>192</v>
@@ -7459,12 +7459,12 @@
       <c r="J94" s="17"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="107"/>
+      <c r="A95" s="86"/>
       <c r="B95" s="1">
         <v>88</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>193</v>
@@ -7474,12 +7474,12 @@
       <c r="J95" s="43"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="107"/>
+      <c r="A96" s="86"/>
       <c r="B96" s="1">
         <v>89</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>205</v>
@@ -7489,12 +7489,12 @@
       <c r="J96" s="43"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="107"/>
+      <c r="A97" s="86"/>
       <c r="B97" s="1">
         <v>90</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>206</v>
@@ -7504,12 +7504,12 @@
       <c r="J97" s="43"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="107"/>
+      <c r="A98" s="86"/>
       <c r="B98" s="1">
         <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>207</v>
@@ -7519,12 +7519,12 @@
       <c r="J98" s="43"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A99" s="107"/>
+      <c r="A99" s="86"/>
       <c r="B99" s="1">
         <v>92</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>208</v>
@@ -7534,12 +7534,12 @@
       <c r="J99" s="43"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="107"/>
+      <c r="A100" s="86"/>
       <c r="B100" s="1">
         <v>93</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>209</v>
@@ -7549,12 +7549,12 @@
       <c r="J100" s="43"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="107"/>
+      <c r="A101" s="86"/>
       <c r="B101" s="1">
         <v>94</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>210</v>
@@ -7564,12 +7564,12 @@
       <c r="J101" s="43"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="107"/>
+      <c r="A102" s="86"/>
       <c r="B102" s="1">
         <v>95</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>211</v>
@@ -7579,12 +7579,12 @@
       <c r="J102" s="43"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="107"/>
+      <c r="A103" s="86"/>
       <c r="B103" s="1">
         <v>96</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>212</v>
@@ -7594,12 +7594,12 @@
       <c r="J103" s="43"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A104" s="107"/>
+      <c r="A104" s="86"/>
       <c r="B104" s="1">
         <v>97</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>213</v>
@@ -7609,12 +7609,12 @@
       <c r="J104" s="43"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="107"/>
+      <c r="A105" s="86"/>
       <c r="B105" s="1">
         <v>98</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>214</v>
@@ -7624,12 +7624,12 @@
       <c r="J105" s="43"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="107"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="1">
         <v>99</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>215</v>
@@ -7637,12 +7637,12 @@
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="107"/>
+      <c r="A107" s="86"/>
       <c r="B107" s="1">
         <v>100</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>216</v>
@@ -7650,12 +7650,12 @@
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="107"/>
+      <c r="A108" s="86"/>
       <c r="B108" s="1">
         <v>101</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>217</v>
@@ -7663,12 +7663,12 @@
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="107"/>
+      <c r="A109" s="86"/>
       <c r="B109" s="1">
         <v>102</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>218</v>
@@ -7676,12 +7676,12 @@
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="107"/>
+      <c r="A110" s="86"/>
       <c r="B110" s="1">
         <v>103</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>219</v>
@@ -7689,12 +7689,12 @@
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="107"/>
+      <c r="A111" s="86"/>
       <c r="B111" s="1">
         <v>104</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>220</v>
@@ -7702,12 +7702,12 @@
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="107"/>
+      <c r="A112" s="86"/>
       <c r="B112" s="1">
         <v>105</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>221</v>
@@ -7715,12 +7715,12 @@
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="107"/>
+      <c r="A113" s="86"/>
       <c r="B113" s="1">
         <v>106</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>222</v>
@@ -7728,12 +7728,12 @@
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="107"/>
+      <c r="A114" s="86"/>
       <c r="B114" s="1">
         <v>107</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>223</v>
@@ -7741,12 +7741,12 @@
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="107"/>
+      <c r="A115" s="86"/>
       <c r="B115" s="1">
         <v>108</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>224</v>
@@ -7754,7 +7754,7 @@
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="107"/>
+      <c r="A116" s="86"/>
       <c r="B116" s="1">
         <v>109</v>
       </c>
@@ -7765,12 +7765,12 @@
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="107"/>
+      <c r="A117" s="86"/>
       <c r="B117" s="1">
         <v>110</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>226</v>
@@ -7778,12 +7778,12 @@
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="107"/>
+      <c r="A118" s="86"/>
       <c r="B118" s="1">
         <v>111</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>227</v>
@@ -7791,7 +7791,7 @@
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="107"/>
+      <c r="A119" s="86"/>
       <c r="B119" s="1">
         <v>112</v>
       </c>
@@ -7802,7 +7802,7 @@
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="107"/>
+      <c r="A120" s="86"/>
       <c r="B120" s="1">
         <v>113</v>
       </c>
@@ -7815,12 +7815,12 @@
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="107"/>
+      <c r="A121" s="86"/>
       <c r="B121" s="1">
         <v>114</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>230</v>
@@ -7828,12 +7828,12 @@
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="107"/>
+      <c r="A122" s="86"/>
       <c r="B122" s="1">
         <v>115</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>231</v>
@@ -7841,12 +7841,12 @@
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="107"/>
+      <c r="A123" s="86"/>
       <c r="B123" s="1">
         <v>116</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>232</v>
@@ -7854,12 +7854,12 @@
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="107"/>
+      <c r="A124" s="86"/>
       <c r="B124" s="1">
         <v>117</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>233</v>
@@ -7867,12 +7867,12 @@
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="107"/>
+      <c r="A125" s="86"/>
       <c r="B125" s="1">
         <v>118</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>234</v>
@@ -7880,12 +7880,12 @@
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="107"/>
+      <c r="A126" s="86"/>
       <c r="B126" s="1">
         <v>119</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>235</v>
@@ -7893,12 +7893,12 @@
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="107"/>
+      <c r="A127" s="86"/>
       <c r="B127" s="1">
         <v>120</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>236</v>
@@ -7906,7 +7906,7 @@
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="107"/>
+      <c r="A128" s="86"/>
       <c r="B128" s="1">
         <v>121</v>
       </c>
@@ -7917,12 +7917,12 @@
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="107"/>
+      <c r="A129" s="86"/>
       <c r="B129" s="1">
         <v>122</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>238</v>
@@ -7930,7 +7930,7 @@
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="108"/>
+      <c r="A130" s="87"/>
       <c r="B130" s="8">
         <v>123</v>
       </c>
@@ -7941,7 +7941,7 @@
       <c r="E130" s="8"/>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="88" t="s">
         <v>389</v>
       </c>
       <c r="B131" s="7">
@@ -7956,7 +7956,7 @@
       <c r="E131" s="7"/>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="110"/>
+      <c r="A132" s="89"/>
       <c r="B132" s="1">
         <v>125</v>
       </c>
@@ -7969,7 +7969,7 @@
       <c r="E132" s="1"/>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="110"/>
+      <c r="A133" s="89"/>
       <c r="B133" s="1">
         <v>126</v>
       </c>
@@ -7982,7 +7982,7 @@
       <c r="E133" s="1"/>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="110"/>
+      <c r="A134" s="89"/>
       <c r="B134" s="1">
         <v>127</v>
       </c>
@@ -7995,7 +7995,7 @@
       <c r="E134" s="1"/>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="110"/>
+      <c r="A135" s="89"/>
       <c r="B135" s="1">
         <v>128</v>
       </c>
@@ -8008,7 +8008,7 @@
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="110"/>
+      <c r="A136" s="89"/>
       <c r="B136" s="1">
         <v>129</v>
       </c>
@@ -8021,7 +8021,7 @@
       <c r="E136" s="1"/>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="110"/>
+      <c r="A137" s="89"/>
       <c r="B137" s="1">
         <v>130</v>
       </c>
@@ -8034,7 +8034,7 @@
       <c r="E137" s="1"/>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="110"/>
+      <c r="A138" s="89"/>
       <c r="B138" s="1">
         <v>131</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="E138" s="1"/>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="110"/>
+      <c r="A139" s="89"/>
       <c r="B139" s="1">
         <v>132</v>
       </c>
@@ -8060,7 +8060,7 @@
       <c r="E139" s="1"/>
     </row>
     <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="110"/>
+      <c r="A140" s="89"/>
       <c r="B140" s="1">
         <v>133</v>
       </c>
@@ -8073,7 +8073,7 @@
       <c r="E140" s="1"/>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="110"/>
+      <c r="A141" s="89"/>
       <c r="B141" s="1">
         <v>134</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="E141" s="1"/>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="110"/>
+      <c r="A142" s="89"/>
       <c r="B142" s="1">
         <v>135</v>
       </c>
@@ -8099,7 +8099,7 @@
       <c r="E142" s="1"/>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="110"/>
+      <c r="A143" s="89"/>
       <c r="B143" s="1">
         <v>136</v>
       </c>
@@ -8112,7 +8112,7 @@
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="110"/>
+      <c r="A144" s="89"/>
       <c r="B144" s="1">
         <v>137</v>
       </c>
@@ -8125,7 +8125,7 @@
       <c r="E144" s="1"/>
     </row>
     <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="110"/>
+      <c r="A145" s="89"/>
       <c r="B145" s="1">
         <v>138</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="E145" s="1"/>
     </row>
     <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="110"/>
+      <c r="A146" s="89"/>
       <c r="B146" s="1">
         <v>139</v>
       </c>
@@ -8151,7 +8151,7 @@
       <c r="E146" s="1"/>
     </row>
     <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="110"/>
+      <c r="A147" s="89"/>
       <c r="B147" s="1">
         <v>140</v>
       </c>
@@ -8164,7 +8164,7 @@
       <c r="E147" s="1"/>
     </row>
     <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="110"/>
+      <c r="A148" s="89"/>
       <c r="B148" s="1">
         <v>141</v>
       </c>
@@ -8177,7 +8177,7 @@
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="110"/>
+      <c r="A149" s="89"/>
       <c r="B149" s="1">
         <v>142</v>
       </c>
@@ -8190,7 +8190,7 @@
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="110"/>
+      <c r="A150" s="89"/>
       <c r="B150" s="1">
         <v>143</v>
       </c>
@@ -8203,7 +8203,7 @@
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="110"/>
+      <c r="A151" s="89"/>
       <c r="B151" s="1">
         <v>144</v>
       </c>
@@ -8216,7 +8216,7 @@
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="110"/>
+      <c r="A152" s="89"/>
       <c r="B152" s="1">
         <v>145</v>
       </c>
@@ -8229,7 +8229,7 @@
       <c r="E152" s="1"/>
     </row>
     <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="110"/>
+      <c r="A153" s="89"/>
       <c r="B153" s="1">
         <v>146</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="E153" s="1"/>
     </row>
     <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="110"/>
+      <c r="A154" s="89"/>
       <c r="B154" s="1">
         <v>147</v>
       </c>
@@ -8255,7 +8255,7 @@
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="110"/>
+      <c r="A155" s="89"/>
       <c r="B155" s="1">
         <v>148</v>
       </c>
@@ -8268,7 +8268,7 @@
       <c r="E155" s="1"/>
     </row>
     <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="110"/>
+      <c r="A156" s="89"/>
       <c r="B156" s="1">
         <v>149</v>
       </c>
@@ -8281,7 +8281,7 @@
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="110"/>
+      <c r="A157" s="89"/>
       <c r="B157" s="1">
         <v>150</v>
       </c>
@@ -8294,7 +8294,7 @@
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="110"/>
+      <c r="A158" s="89"/>
       <c r="B158" s="1">
         <v>151</v>
       </c>
@@ -8307,7 +8307,7 @@
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="110"/>
+      <c r="A159" s="89"/>
       <c r="B159" s="1">
         <v>152</v>
       </c>
@@ -8320,7 +8320,7 @@
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="110"/>
+      <c r="A160" s="89"/>
       <c r="B160" s="1">
         <v>153</v>
       </c>
@@ -8333,7 +8333,7 @@
       <c r="E160" s="1"/>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="110"/>
+      <c r="A161" s="89"/>
       <c r="B161" s="1">
         <v>154</v>
       </c>
@@ -8346,7 +8346,7 @@
       <c r="E161" s="1"/>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="110"/>
+      <c r="A162" s="89"/>
       <c r="B162" s="1">
         <v>155</v>
       </c>
@@ -8359,7 +8359,7 @@
       <c r="E162" s="1"/>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="110"/>
+      <c r="A163" s="89"/>
       <c r="B163" s="1">
         <v>156</v>
       </c>
@@ -8372,7 +8372,7 @@
       <c r="E163" s="1"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="110"/>
+      <c r="A164" s="89"/>
       <c r="B164" s="1">
         <v>157</v>
       </c>
@@ -8385,7 +8385,7 @@
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="110"/>
+      <c r="A165" s="89"/>
       <c r="B165" s="1">
         <v>158</v>
       </c>
@@ -8398,7 +8398,7 @@
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="110"/>
+      <c r="A166" s="89"/>
       <c r="B166" s="1">
         <v>159</v>
       </c>
@@ -8411,7 +8411,7 @@
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="110"/>
+      <c r="A167" s="89"/>
       <c r="B167" s="1">
         <v>160</v>
       </c>
@@ -8424,7 +8424,7 @@
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="110"/>
+      <c r="A168" s="89"/>
       <c r="B168" s="1">
         <v>161</v>
       </c>
@@ -8437,7 +8437,7 @@
       <c r="E168" s="1"/>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="110"/>
+      <c r="A169" s="89"/>
       <c r="B169" s="1">
         <v>162</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="110"/>
+      <c r="A170" s="89"/>
       <c r="B170" s="1">
         <v>163</v>
       </c>
@@ -8463,7 +8463,7 @@
       <c r="E170" s="1"/>
     </row>
     <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="110"/>
+      <c r="A171" s="89"/>
       <c r="B171" s="1">
         <v>164</v>
       </c>
@@ -8476,7 +8476,7 @@
       <c r="E171" s="1"/>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="110"/>
+      <c r="A172" s="89"/>
       <c r="B172" s="1">
         <v>165</v>
       </c>
@@ -8489,7 +8489,7 @@
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="110"/>
+      <c r="A173" s="89"/>
       <c r="B173" s="1">
         <v>166</v>
       </c>
@@ -8502,7 +8502,7 @@
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="110"/>
+      <c r="A174" s="89"/>
       <c r="B174" s="1">
         <v>167</v>
       </c>
@@ -8515,7 +8515,7 @@
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="110"/>
+      <c r="A175" s="89"/>
       <c r="B175" s="1">
         <v>168</v>
       </c>
@@ -8528,7 +8528,7 @@
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="110"/>
+      <c r="A176" s="89"/>
       <c r="B176" s="1">
         <v>169</v>
       </c>
@@ -8541,7 +8541,7 @@
       <c r="E176" s="1"/>
     </row>
     <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="110"/>
+      <c r="A177" s="89"/>
       <c r="B177" s="1">
         <v>170</v>
       </c>
@@ -8554,7 +8554,7 @@
       <c r="E177" s="1"/>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="110"/>
+      <c r="A178" s="89"/>
       <c r="B178" s="1">
         <v>171</v>
       </c>
@@ -8567,7 +8567,7 @@
       <c r="E178" s="1"/>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="110"/>
+      <c r="A179" s="89"/>
       <c r="B179" s="1">
         <v>172</v>
       </c>
@@ -8580,7 +8580,7 @@
       <c r="E179" s="1"/>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="110"/>
+      <c r="A180" s="89"/>
       <c r="B180" s="1">
         <v>173</v>
       </c>
@@ -8593,7 +8593,7 @@
       <c r="E180" s="1"/>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="110"/>
+      <c r="A181" s="89"/>
       <c r="B181" s="1">
         <v>174</v>
       </c>
@@ -8606,7 +8606,7 @@
       <c r="E181" s="1"/>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="110"/>
+      <c r="A182" s="89"/>
       <c r="B182" s="1">
         <v>175</v>
       </c>
@@ -8619,7 +8619,7 @@
       <c r="E182" s="1"/>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="110"/>
+      <c r="A183" s="89"/>
       <c r="B183" s="1">
         <v>176</v>
       </c>
@@ -8632,7 +8632,7 @@
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="110"/>
+      <c r="A184" s="89"/>
       <c r="B184" s="1">
         <v>177</v>
       </c>
@@ -8645,7 +8645,7 @@
       <c r="E184" s="1"/>
     </row>
     <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="110"/>
+      <c r="A185" s="89"/>
       <c r="B185" s="1">
         <v>178</v>
       </c>
@@ -8658,7 +8658,7 @@
       <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="110"/>
+      <c r="A186" s="89"/>
       <c r="B186" s="1">
         <v>179</v>
       </c>
@@ -8671,7 +8671,7 @@
       <c r="E186" s="1"/>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="110"/>
+      <c r="A187" s="89"/>
       <c r="B187" s="1">
         <v>180</v>
       </c>
@@ -8684,7 +8684,7 @@
       <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="110"/>
+      <c r="A188" s="89"/>
       <c r="B188" s="1">
         <v>181</v>
       </c>
@@ -8697,7 +8697,7 @@
       <c r="E188" s="1"/>
     </row>
     <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="110"/>
+      <c r="A189" s="89"/>
       <c r="B189" s="1">
         <v>182</v>
       </c>
@@ -8710,7 +8710,7 @@
       <c r="E189" s="1"/>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="110"/>
+      <c r="A190" s="89"/>
       <c r="B190" s="1">
         <v>183</v>
       </c>
@@ -8723,7 +8723,7 @@
       <c r="E190" s="1"/>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="110"/>
+      <c r="A191" s="89"/>
       <c r="B191" s="1">
         <v>184</v>
       </c>
@@ -8736,7 +8736,7 @@
       <c r="E191" s="1"/>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="110"/>
+      <c r="A192" s="89"/>
       <c r="B192" s="1">
         <v>185</v>
       </c>
@@ -8749,7 +8749,7 @@
       <c r="E192" s="1"/>
     </row>
     <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="110"/>
+      <c r="A193" s="89"/>
       <c r="B193" s="1">
         <v>186</v>
       </c>
@@ -8762,7 +8762,7 @@
       <c r="E193" s="1"/>
     </row>
     <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="110"/>
+      <c r="A194" s="89"/>
       <c r="B194" s="1">
         <v>187</v>
       </c>
@@ -8775,7 +8775,7 @@
       <c r="E194" s="1"/>
     </row>
     <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="110"/>
+      <c r="A195" s="89"/>
       <c r="B195" s="1">
         <v>188</v>
       </c>
@@ -8788,7 +8788,7 @@
       <c r="E195" s="1"/>
     </row>
     <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="110"/>
+      <c r="A196" s="89"/>
       <c r="B196" s="1">
         <v>189</v>
       </c>
@@ -8801,7 +8801,7 @@
       <c r="E196" s="1"/>
     </row>
     <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="110"/>
+      <c r="A197" s="89"/>
       <c r="B197" s="1">
         <v>190</v>
       </c>
@@ -8814,7 +8814,7 @@
       <c r="E197" s="1"/>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="110"/>
+      <c r="A198" s="89"/>
       <c r="B198" s="1">
         <v>191</v>
       </c>
@@ -8827,7 +8827,7 @@
       <c r="E198" s="1"/>
     </row>
     <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="110"/>
+      <c r="A199" s="89"/>
       <c r="B199" s="1">
         <v>192</v>
       </c>
@@ -8840,7 +8840,7 @@
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="110"/>
+      <c r="A200" s="89"/>
       <c r="B200" s="1">
         <v>193</v>
       </c>
@@ -8853,7 +8853,7 @@
       <c r="E200" s="1"/>
     </row>
     <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="110"/>
+      <c r="A201" s="89"/>
       <c r="B201" s="1">
         <v>194</v>
       </c>
@@ -8866,7 +8866,7 @@
       <c r="E201" s="1"/>
     </row>
     <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="110"/>
+      <c r="A202" s="89"/>
       <c r="B202" s="1">
         <v>195</v>
       </c>
@@ -8879,7 +8879,7 @@
       <c r="E202" s="1"/>
     </row>
     <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="110"/>
+      <c r="A203" s="89"/>
       <c r="B203" s="1">
         <v>196</v>
       </c>
@@ -8892,7 +8892,7 @@
       <c r="E203" s="1"/>
     </row>
     <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="110"/>
+      <c r="A204" s="89"/>
       <c r="B204" s="1">
         <v>197</v>
       </c>
@@ -8905,7 +8905,7 @@
       <c r="E204" s="1"/>
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="110"/>
+      <c r="A205" s="89"/>
       <c r="B205" s="1">
         <v>198</v>
       </c>
@@ -8918,7 +8918,7 @@
       <c r="E205" s="1"/>
     </row>
     <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="110"/>
+      <c r="A206" s="89"/>
       <c r="B206" s="1">
         <v>199</v>
       </c>
@@ -8931,7 +8931,7 @@
       <c r="E206" s="1"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="110"/>
+      <c r="A207" s="89"/>
       <c r="B207" s="1">
         <v>200</v>
       </c>
@@ -8944,7 +8944,7 @@
       <c r="E207" s="10"/>
     </row>
     <row r="208" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="110"/>
+      <c r="A208" s="89"/>
       <c r="B208" s="8">
         <v>201</v>
       </c>
@@ -8957,7 +8957,7 @@
       <c r="E208" s="10"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="107" t="s">
+      <c r="A209" s="86" t="s">
         <v>561</v>
       </c>
       <c r="B209" s="45">
@@ -8972,7 +8972,7 @@
       <c r="E209" s="10"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="107"/>
+      <c r="A210" s="86"/>
       <c r="B210" s="44">
         <v>203</v>
       </c>
@@ -8985,7 +8985,7 @@
       <c r="E210" s="10"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="107"/>
+      <c r="A211" s="86"/>
       <c r="B211" s="44">
         <v>204</v>
       </c>
@@ -8998,7 +8998,7 @@
       <c r="E211" s="10"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="107"/>
+      <c r="A212" s="86"/>
       <c r="B212" s="44">
         <v>205</v>
       </c>
@@ -9011,7 +9011,7 @@
       <c r="E212" s="10"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="107"/>
+      <c r="A213" s="86"/>
       <c r="B213" s="44">
         <v>206</v>
       </c>
@@ -9024,7 +9024,7 @@
       <c r="E213" s="10"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="107"/>
+      <c r="A214" s="86"/>
       <c r="B214" s="44">
         <v>207</v>
       </c>
@@ -9037,7 +9037,7 @@
       <c r="E214" s="10"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="107"/>
+      <c r="A215" s="86"/>
       <c r="B215" s="44">
         <v>208</v>
       </c>
@@ -9050,7 +9050,7 @@
       <c r="E215" s="10"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="107"/>
+      <c r="A216" s="86"/>
       <c r="B216" s="44">
         <v>209</v>
       </c>
@@ -9063,7 +9063,7 @@
       <c r="E216" s="10"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="107"/>
+      <c r="A217" s="86"/>
       <c r="B217" s="44">
         <v>210</v>
       </c>
@@ -9076,7 +9076,7 @@
       <c r="E217" s="10"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="107"/>
+      <c r="A218" s="86"/>
       <c r="B218" s="44">
         <v>211</v>
       </c>
@@ -9089,7 +9089,7 @@
       <c r="E218" s="10"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="107"/>
+      <c r="A219" s="86"/>
       <c r="B219" s="44">
         <v>212</v>
       </c>
@@ -9102,7 +9102,7 @@
       <c r="E219" s="10"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="107"/>
+      <c r="A220" s="86"/>
       <c r="B220" s="44">
         <v>213</v>
       </c>
@@ -9115,7 +9115,7 @@
       <c r="E220" s="10"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="107"/>
+      <c r="A221" s="86"/>
       <c r="B221" s="44">
         <v>214</v>
       </c>
@@ -9128,7 +9128,7 @@
       <c r="E221" s="10"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="107"/>
+      <c r="A222" s="86"/>
       <c r="B222" s="44">
         <v>215</v>
       </c>
@@ -9141,7 +9141,7 @@
       <c r="E222" s="10"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="107"/>
+      <c r="A223" s="86"/>
       <c r="B223" s="44">
         <v>216</v>
       </c>
@@ -9154,7 +9154,7 @@
       <c r="E223" s="10"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="107"/>
+      <c r="A224" s="86"/>
       <c r="B224" s="44">
         <v>217</v>
       </c>
@@ -9167,7 +9167,7 @@
       <c r="E224" s="10"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="107"/>
+      <c r="A225" s="86"/>
       <c r="B225" s="44">
         <v>218</v>
       </c>
@@ -9180,7 +9180,7 @@
       <c r="E225" s="10"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="107"/>
+      <c r="A226" s="86"/>
       <c r="B226" s="44">
         <v>219</v>
       </c>
@@ -9193,7 +9193,7 @@
       <c r="E226" s="10"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="107"/>
+      <c r="A227" s="86"/>
       <c r="B227" s="44">
         <v>220</v>
       </c>
@@ -9206,7 +9206,7 @@
       <c r="E227" s="10"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="107"/>
+      <c r="A228" s="86"/>
       <c r="B228" s="44">
         <v>221</v>
       </c>
@@ -9219,7 +9219,7 @@
       <c r="E228" s="10"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="107"/>
+      <c r="A229" s="86"/>
       <c r="B229" s="44">
         <v>222</v>
       </c>
@@ -9232,7 +9232,7 @@
       <c r="E229" s="10"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="107"/>
+      <c r="A230" s="86"/>
       <c r="B230" s="44">
         <v>223</v>
       </c>
@@ -9245,7 +9245,7 @@
       <c r="E230" s="10"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="107"/>
+      <c r="A231" s="86"/>
       <c r="B231" s="44">
         <v>224</v>
       </c>
@@ -9258,7 +9258,7 @@
       <c r="E231" s="10"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="107"/>
+      <c r="A232" s="86"/>
       <c r="B232" s="44">
         <v>225</v>
       </c>
@@ -9271,7 +9271,7 @@
       <c r="E232" s="10"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="107"/>
+      <c r="A233" s="86"/>
       <c r="B233" s="44">
         <v>226</v>
       </c>
@@ -9284,7 +9284,7 @@
       <c r="E233" s="10"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="107"/>
+      <c r="A234" s="86"/>
       <c r="B234" s="44">
         <v>227</v>
       </c>
@@ -9297,7 +9297,7 @@
       <c r="E234" s="10"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="107"/>
+      <c r="A235" s="86"/>
       <c r="B235" s="44">
         <v>228</v>
       </c>
@@ -9310,7 +9310,7 @@
       <c r="E235" s="10"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="107"/>
+      <c r="A236" s="86"/>
       <c r="B236" s="44">
         <v>229</v>
       </c>
@@ -9323,7 +9323,7 @@
       <c r="E236" s="10"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="107"/>
+      <c r="A237" s="86"/>
       <c r="B237" s="44">
         <v>230</v>
       </c>
@@ -9336,7 +9336,7 @@
       <c r="E237" s="10"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="107"/>
+      <c r="A238" s="86"/>
       <c r="B238" s="44">
         <v>231</v>
       </c>
@@ -9349,7 +9349,7 @@
       <c r="E238" s="10"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="107"/>
+      <c r="A239" s="86"/>
       <c r="B239" s="44">
         <v>232</v>
       </c>
@@ -9362,7 +9362,7 @@
       <c r="E239" s="10"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="107"/>
+      <c r="A240" s="86"/>
       <c r="B240" s="44">
         <v>233</v>
       </c>
@@ -9375,7 +9375,7 @@
       <c r="E240" s="10"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="107"/>
+      <c r="A241" s="86"/>
       <c r="B241" s="44">
         <v>234</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="E241" s="10"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="107"/>
+      <c r="A242" s="86"/>
       <c r="B242" s="44">
         <v>235</v>
       </c>
@@ -9401,7 +9401,7 @@
       <c r="E242" s="10"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="107"/>
+      <c r="A243" s="86"/>
       <c r="B243" s="44">
         <v>236</v>
       </c>
@@ -9414,7 +9414,7 @@
       <c r="E243" s="10"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="107"/>
+      <c r="A244" s="86"/>
       <c r="B244" s="44">
         <v>237</v>
       </c>
@@ -9427,7 +9427,7 @@
       <c r="E244" s="10"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="107"/>
+      <c r="A245" s="86"/>
       <c r="B245" s="44">
         <v>238</v>
       </c>
@@ -9439,7 +9439,7 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="107"/>
+      <c r="A246" s="86"/>
       <c r="B246" s="44">
         <v>239</v>
       </c>
@@ -9451,7 +9451,7 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="107"/>
+      <c r="A247" s="86"/>
       <c r="B247" s="44">
         <v>240</v>
       </c>
@@ -9463,7 +9463,7 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="107"/>
+      <c r="A248" s="86"/>
       <c r="B248" s="44">
         <v>241</v>
       </c>
@@ -9475,7 +9475,7 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="107"/>
+      <c r="A249" s="86"/>
       <c r="B249" s="44">
         <v>242</v>
       </c>
@@ -9487,7 +9487,7 @@
       </c>
     </row>
     <row r="250" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="108"/>
+      <c r="A250" s="87"/>
       <c r="B250" s="46">
         <v>243</v>
       </c>
@@ -9499,7 +9499,7 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="109" t="s">
+      <c r="A251" s="88" t="s">
         <v>618</v>
       </c>
       <c r="B251" s="47">
@@ -9513,7 +9513,7 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="110"/>
+      <c r="A252" s="89"/>
       <c r="B252" s="44">
         <v>245</v>
       </c>
@@ -9525,7 +9525,7 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="110"/>
+      <c r="A253" s="89"/>
       <c r="B253" s="44">
         <v>246</v>
       </c>
@@ -9537,7 +9537,7 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="110"/>
+      <c r="A254" s="89"/>
       <c r="B254" s="44">
         <v>247</v>
       </c>
@@ -9549,7 +9549,7 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="110"/>
+      <c r="A255" s="89"/>
       <c r="B255" s="44">
         <v>248</v>
       </c>
@@ -9561,7 +9561,7 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="110"/>
+      <c r="A256" s="89"/>
       <c r="B256" s="44">
         <v>249</v>
       </c>
@@ -9573,7 +9573,7 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="110"/>
+      <c r="A257" s="89"/>
       <c r="B257" s="44">
         <v>250</v>
       </c>
@@ -9585,7 +9585,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="110"/>
+      <c r="A258" s="89"/>
       <c r="B258" s="44">
         <v>251</v>
       </c>
@@ -9597,7 +9597,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="110"/>
+      <c r="A259" s="89"/>
       <c r="B259" s="44">
         <v>252</v>
       </c>
@@ -9609,7 +9609,7 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" s="110"/>
+      <c r="A260" s="89"/>
       <c r="B260" s="44">
         <v>253</v>
       </c>
@@ -9621,7 +9621,7 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="110"/>
+      <c r="A261" s="89"/>
       <c r="B261" s="44">
         <v>254</v>
       </c>
@@ -9633,7 +9633,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="110"/>
+      <c r="A262" s="89"/>
       <c r="B262" s="44">
         <v>255</v>
       </c>
@@ -9645,7 +9645,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="110"/>
+      <c r="A263" s="89"/>
       <c r="B263" s="44">
         <v>256</v>
       </c>
@@ -9657,7 +9657,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="110"/>
+      <c r="A264" s="89"/>
       <c r="B264" s="44">
         <v>257</v>
       </c>
@@ -9669,7 +9669,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="110"/>
+      <c r="A265" s="89"/>
       <c r="B265" s="44">
         <v>258</v>
       </c>
@@ -9681,7 +9681,7 @@
       </c>
     </row>
     <row r="266" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="111"/>
+      <c r="A266" s="90"/>
       <c r="B266" s="46">
         <v>259</v>
       </c>
@@ -9693,7 +9693,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="112" t="s">
+      <c r="A267" s="91" t="s">
         <v>689</v>
       </c>
       <c r="B267" s="47">
@@ -9707,7 +9707,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="107"/>
+      <c r="A268" s="86"/>
       <c r="B268" s="44">
         <v>261</v>
       </c>
@@ -9719,7 +9719,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="107"/>
+      <c r="A269" s="86"/>
       <c r="B269" s="45">
         <v>262</v>
       </c>
@@ -9731,7 +9731,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" s="107"/>
+      <c r="A270" s="86"/>
       <c r="B270" s="44">
         <v>263</v>
       </c>
@@ -9743,7 +9743,7 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="107"/>
+      <c r="A271" s="86"/>
       <c r="B271" s="45">
         <v>264</v>
       </c>
@@ -9755,7 +9755,7 @@
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="107"/>
+      <c r="A272" s="86"/>
       <c r="B272" s="44">
         <v>265</v>
       </c>
@@ -9767,7 +9767,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="107"/>
+      <c r="A273" s="86"/>
       <c r="B273" s="45">
         <v>266</v>
       </c>
@@ -9779,7 +9779,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="107"/>
+      <c r="A274" s="86"/>
       <c r="B274" s="44">
         <v>267</v>
       </c>
@@ -9791,7 +9791,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="107"/>
+      <c r="A275" s="86"/>
       <c r="B275" s="45">
         <v>268</v>
       </c>
@@ -9803,7 +9803,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="107"/>
+      <c r="A276" s="86"/>
       <c r="B276" s="44">
         <v>269</v>
       </c>
@@ -9815,7 +9815,7 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="107"/>
+      <c r="A277" s="86"/>
       <c r="B277" s="45">
         <v>270</v>
       </c>
@@ -9827,7 +9827,7 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="107"/>
+      <c r="A278" s="86"/>
       <c r="B278" s="44">
         <v>271</v>
       </c>
@@ -9839,7 +9839,7 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="107"/>
+      <c r="A279" s="86"/>
       <c r="B279" s="45">
         <v>272</v>
       </c>
@@ -9851,7 +9851,7 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="107"/>
+      <c r="A280" s="86"/>
       <c r="B280" s="44">
         <v>273</v>
       </c>
@@ -9863,7 +9863,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="107"/>
+      <c r="A281" s="86"/>
       <c r="B281" s="45">
         <v>274</v>
       </c>
@@ -9875,7 +9875,7 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="107"/>
+      <c r="A282" s="86"/>
       <c r="B282" s="44">
         <v>275</v>
       </c>
@@ -9887,7 +9887,7 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="107"/>
+      <c r="A283" s="86"/>
       <c r="B283" s="45">
         <v>276</v>
       </c>
@@ -9899,7 +9899,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="107"/>
+      <c r="A284" s="86"/>
       <c r="B284" s="44">
         <v>277</v>
       </c>
@@ -9911,7 +9911,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285" s="107"/>
+      <c r="A285" s="86"/>
       <c r="B285" s="45">
         <v>278</v>
       </c>
@@ -9923,7 +9923,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286" s="107"/>
+      <c r="A286" s="86"/>
       <c r="B286" s="44">
         <v>279</v>
       </c>
@@ -9935,7 +9935,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" s="107"/>
+      <c r="A287" s="86"/>
       <c r="B287" s="45">
         <v>280</v>
       </c>
@@ -9947,7 +9947,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" s="107"/>
+      <c r="A288" s="86"/>
       <c r="B288" s="44">
         <v>281</v>
       </c>
@@ -9959,7 +9959,7 @@
       </c>
     </row>
     <row r="289" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="108"/>
+      <c r="A289" s="87"/>
       <c r="B289" s="48">
         <v>282</v>
       </c>
@@ -10246,11 +10246,6 @@
     <sortCondition ref="E8"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A209:A250"/>
-    <mergeCell ref="A131:A208"/>
-    <mergeCell ref="A251:A266"/>
-    <mergeCell ref="A267:A289"/>
-    <mergeCell ref="A75:A130"/>
     <mergeCell ref="M1:Q4"/>
     <mergeCell ref="A8:A40"/>
     <mergeCell ref="A41:A74"/>
@@ -10258,6 +10253,11 @@
     <mergeCell ref="M48:Q51"/>
     <mergeCell ref="H2:I5"/>
     <mergeCell ref="M14:Q18"/>
+    <mergeCell ref="A209:A250"/>
+    <mergeCell ref="A131:A208"/>
+    <mergeCell ref="A251:A266"/>
+    <mergeCell ref="A267:A289"/>
+    <mergeCell ref="A75:A130"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10299,21 +10299,21 @@
   <sheetData>
     <row r="1" spans="1:14" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25"/>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="107" t="s">
         <v>32</v>
       </c>
       <c r="D1" s="113"/>
       <c r="E1" s="113"/>
-      <c r="F1" s="102"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="104"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="110"/>
       <c r="H2" s="114" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I2" s="115"/>
       <c r="J2" s="115"/>
@@ -10324,10 +10324,10 @@
     </row>
     <row r="3" spans="1:14" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="104"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="110"/>
       <c r="H3" s="114"/>
       <c r="I3" s="115"/>
       <c r="J3" s="115"/>
@@ -10338,10 +10338,10 @@
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="106"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="112"/>
       <c r="H4" s="114"/>
       <c r="I4" s="115"/>
       <c r="J4" s="115"/>
@@ -10401,13 +10401,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>507</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>194</v>
@@ -10436,13 +10436,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>195</v>
@@ -10471,13 +10471,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1032</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>196</v>
@@ -10506,13 +10506,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>197</v>
@@ -10541,19 +10541,19 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>198</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>204</v>
@@ -10562,7 +10562,7 @@
         <v>454</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>471</v>
@@ -10577,13 +10577,13 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>1035</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>199</v>
@@ -10612,13 +10612,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="30" t="s">
@@ -10645,13 +10645,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -10659,13 +10659,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
@@ -10673,26 +10673,26 @@
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="29" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="M17" s="29" t="s">
         <v>681</v>
@@ -10716,19 +10716,19 @@
         <v>194</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="N18" s="13"/>
     </row>
@@ -10749,19 +10749,19 @@
         <v>195</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="N19" s="13"/>
     </row>
@@ -10780,19 +10780,19 @@
         <v>196</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="N20" s="13"/>
     </row>
@@ -10801,26 +10801,26 @@
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F21" s="1"/>
       <c r="H21" s="1" t="s">
         <v>197</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>681</v>
@@ -10842,19 +10842,19 @@
         <v>198</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="N22" s="1"/>
     </row>
@@ -10863,26 +10863,26 @@
         <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F23" s="1"/>
       <c r="H23" s="1" t="s">
         <v>199</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>681</v>
@@ -10894,27 +10894,27 @@
         <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F24" s="1"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="N24" s="30"/>
     </row>
@@ -10923,10 +10923,10 @@
         <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -11007,10 +11007,10 @@
         <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -11319,10 +11319,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F57" s="1"/>
       <c r="I57" s="77"/>
@@ -11333,10 +11333,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F58" s="1"/>
       <c r="I58" s="77"/>
@@ -11347,10 +11347,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="F59" s="1"/>
       <c r="I59" s="77"/>
@@ -11361,10 +11361,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F60" s="1"/>
       <c r="J60" s="77"/>
@@ -11374,7 +11374,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>465</v>
@@ -11387,10 +11387,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F62" s="1"/>
       <c r="J62" s="77"/>
@@ -11729,60 +11729,60 @@
   <sheetData>
     <row r="2" spans="3:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="86" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
-      <c r="I3" s="123" t="s">
-        <v>1243</v>
-      </c>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="125"/>
+      <c r="C3" s="92" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="I3" s="120" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="122"/>
     </row>
     <row r="4" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="91"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="128"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="125"/>
     </row>
     <row r="5" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="128"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="125"/>
     </row>
     <row r="6" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="94"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="128"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="125"/>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="31"/>
@@ -11824,13 +11824,13 @@
       <c r="G9" s="32"/>
       <c r="I9" s="31"/>
       <c r="J9" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>1212</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>1228</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>1214</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>30</v>
@@ -11853,11 +11853,11 @@
       <c r="J10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="129" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
+      <c r="K10" s="126" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
       <c r="N10" s="32"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.3">
@@ -11874,11 +11874,11 @@
       <c r="G11" s="32"/>
       <c r="I11" s="31"/>
       <c r="J11" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
+        <v>1211</v>
+      </c>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
       <c r="N11" s="32"/>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
@@ -11914,10 +11914,10 @@
       <c r="G13" s="32"/>
       <c r="I13" s="31"/>
       <c r="J13" s="17" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="K13" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="32"/>
@@ -11936,10 +11936,10 @@
       <c r="G14" s="32"/>
       <c r="I14" s="31"/>
       <c r="J14" s="17" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="K14" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="32"/>
@@ -11994,7 +11994,7 @@
       <c r="G18" s="32"/>
       <c r="I18" s="31"/>
       <c r="J18" s="17" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -12033,11 +12033,11 @@
       </c>
       <c r="G20" s="32"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="122" t="s">
-        <v>1225</v>
-      </c>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
+      <c r="J20" s="117" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
       <c r="M20" s="10"/>
       <c r="N20" s="32"/>
     </row>
@@ -12055,12 +12055,12 @@
       <c r="G21" s="32"/>
       <c r="I21" s="31"/>
       <c r="J21" s="82" t="s">
-        <v>1226</v>
-      </c>
-      <c r="K21" s="120" t="s">
-        <v>1227</v>
-      </c>
-      <c r="L21" s="121"/>
+        <v>1224</v>
+      </c>
+      <c r="K21" s="128" t="s">
+        <v>1225</v>
+      </c>
+      <c r="L21" s="129"/>
       <c r="M21" s="10"/>
       <c r="N21" s="32"/>
     </row>
@@ -12078,12 +12078,12 @@
       <c r="G22" s="32"/>
       <c r="I22" s="31"/>
       <c r="J22" s="83" t="s">
-        <v>1235</v>
-      </c>
-      <c r="K22" s="117" t="s">
-        <v>1232</v>
-      </c>
-      <c r="L22" s="118"/>
+        <v>1233</v>
+      </c>
+      <c r="K22" s="118" t="s">
+        <v>1230</v>
+      </c>
+      <c r="L22" s="119"/>
       <c r="M22" s="10"/>
       <c r="N22" s="32"/>
     </row>
@@ -12100,12 +12100,12 @@
       <c r="G23" s="32"/>
       <c r="I23" s="31"/>
       <c r="J23" s="84" t="s">
-        <v>1236</v>
-      </c>
-      <c r="K23" s="117" t="s">
-        <v>1233</v>
-      </c>
-      <c r="L23" s="118"/>
+        <v>1234</v>
+      </c>
+      <c r="K23" s="118" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L23" s="119"/>
       <c r="M23" s="10"/>
       <c r="N23" s="32"/>
     </row>
@@ -12117,54 +12117,54 @@
       <c r="G24" s="53"/>
       <c r="I24" s="31"/>
       <c r="J24" s="84" t="s">
-        <v>1237</v>
-      </c>
-      <c r="K24" s="117" t="s">
-        <v>1234</v>
-      </c>
-      <c r="L24" s="118"/>
+        <v>1235</v>
+      </c>
+      <c r="K24" s="118" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L24" s="119"/>
       <c r="M24" s="10"/>
       <c r="N24" s="32"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">
       <c r="I25" s="31"/>
       <c r="J25" s="85" t="s">
-        <v>1238</v>
-      </c>
-      <c r="K25" s="117" t="s">
-        <v>1239</v>
-      </c>
-      <c r="L25" s="118"/>
+        <v>1236</v>
+      </c>
+      <c r="K25" s="118" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L25" s="119"/>
       <c r="M25" s="10"/>
       <c r="N25" s="32"/>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.3">
       <c r="I26" s="31"/>
       <c r="J26" s="84"/>
-      <c r="K26" s="118" t="s">
-        <v>1240</v>
-      </c>
-      <c r="L26" s="119"/>
+      <c r="K26" s="119" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L26" s="127"/>
       <c r="M26" s="10"/>
       <c r="N26" s="32"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.3">
       <c r="I27" s="31"/>
       <c r="J27" s="84"/>
-      <c r="K27" s="117" t="s">
-        <v>1241</v>
-      </c>
-      <c r="L27" s="118"/>
+      <c r="K27" s="118" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L27" s="119"/>
       <c r="M27" s="10" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="N27" s="32"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.3">
       <c r="I28" s="31"/>
       <c r="J28" s="84"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
       <c r="M28" s="10"/>
       <c r="N28" s="32"/>
     </row>
@@ -12194,6 +12194,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
@@ -12201,11 +12206,6 @@
     <mergeCell ref="C3:G6"/>
     <mergeCell ref="I3:N6"/>
     <mergeCell ref="K10:M11"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K21:L21"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12229,8 +12229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12243,7 +12243,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="130" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B1" s="44">
         <v>283</v>
@@ -12924,7 +12924,7 @@
         <v>821</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>822</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -12933,10 +12933,10 @@
         <v>340</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -12945,10 +12945,10 @@
         <v>341</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -12957,10 +12957,10 @@
         <v>342</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -12969,10 +12969,10 @@
         <v>343</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -12981,10 +12981,10 @@
         <v>344</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -12993,10 +12993,10 @@
         <v>345</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -13005,10 +13005,10 @@
         <v>346</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D64" s="63" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -13017,10 +13017,10 @@
         <v>347</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -13029,10 +13029,10 @@
         <v>348</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -13041,10 +13041,10 @@
         <v>349</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -13053,10 +13053,10 @@
         <v>350</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -13065,10 +13065,10 @@
         <v>351</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>845</v>
+        <v>1250</v>
       </c>
       <c r="D69" s="63" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -13077,10 +13077,10 @@
         <v>352</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -13089,10 +13089,10 @@
         <v>353</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -13101,10 +13101,10 @@
         <v>354</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D72" s="63" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -13113,10 +13113,10 @@
         <v>355</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -13125,10 +13125,10 @@
         <v>356</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -13137,10 +13137,10 @@
         <v>357</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -13149,10 +13149,10 @@
         <v>358</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -13161,10 +13161,10 @@
         <v>359</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -13176,21 +13176,21 @@
         <v>508</v>
       </c>
       <c r="D78" s="64" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A79" s="132" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B79" s="58">
         <v>361</v>
       </c>
       <c r="C79" s="58" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D79" s="58" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -13199,10 +13199,10 @@
         <v>362</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -13211,10 +13211,10 @@
         <v>363</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -13223,10 +13223,10 @@
         <v>364</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -13235,10 +13235,10 @@
         <v>365</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -13247,10 +13247,10 @@
         <v>366</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -13259,10 +13259,10 @@
         <v>367</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -13271,10 +13271,10 @@
         <v>368</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -13283,10 +13283,10 @@
         <v>369</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -13295,10 +13295,10 @@
         <v>370</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -13307,10 +13307,10 @@
         <v>371</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -13319,10 +13319,10 @@
         <v>372</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -13331,10 +13331,10 @@
         <v>373</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -13343,10 +13343,10 @@
         <v>374</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -13355,10 +13355,10 @@
         <v>375</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -13367,10 +13367,10 @@
         <v>376</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -13379,10 +13379,10 @@
         <v>377</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -13391,10 +13391,10 @@
         <v>378</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -13403,10 +13403,10 @@
         <v>379</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -13415,10 +13415,10 @@
         <v>380</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -13427,10 +13427,10 @@
         <v>381</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -13439,10 +13439,10 @@
         <v>382</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -13451,10 +13451,10 @@
         <v>383</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -13463,10 +13463,10 @@
         <v>384</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -13475,10 +13475,10 @@
         <v>385</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -13487,10 +13487,10 @@
         <v>386</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -13499,10 +13499,10 @@
         <v>387</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -13511,10 +13511,10 @@
         <v>388</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -13523,10 +13523,10 @@
         <v>389</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -13535,10 +13535,10 @@
         <v>390</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -13547,10 +13547,10 @@
         <v>391</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -13559,10 +13559,10 @@
         <v>392</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -13571,10 +13571,10 @@
         <v>393</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -13583,10 +13583,10 @@
         <v>394</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -13595,10 +13595,10 @@
         <v>395</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -13607,10 +13607,10 @@
         <v>396</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -13619,10 +13619,10 @@
         <v>397</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -13631,10 +13631,10 @@
         <v>398</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -13643,10 +13643,10 @@
         <v>399</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -13655,10 +13655,10 @@
         <v>400</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -13667,24 +13667,24 @@
         <v>401</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="134" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B120" s="12">
         <v>402</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D120" s="76" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -13693,10 +13693,10 @@
         <v>403</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D121" s="50" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -13705,10 +13705,10 @@
         <v>404</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D122" s="50" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -13717,10 +13717,10 @@
         <v>405</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D123" s="50" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -13729,10 +13729,10 @@
         <v>406</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D124" s="50" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -13741,10 +13741,10 @@
         <v>407</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D125" s="50" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -13753,10 +13753,10 @@
         <v>408</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D126" s="50" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -13765,10 +13765,10 @@
         <v>409</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D127" s="50" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -13777,10 +13777,10 @@
         <v>410</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D128" s="50" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -13789,10 +13789,10 @@
         <v>411</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D129" s="50" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -13801,10 +13801,10 @@
         <v>412</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D130" s="50" t="s">
         <v>1062</v>
-      </c>
-      <c r="D130" s="50" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -13813,10 +13813,10 @@
         <v>413</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D131" s="50" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -13825,10 +13825,10 @@
         <v>414</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D132" s="50" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -13837,10 +13837,10 @@
         <v>415</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D133" s="50" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -13849,10 +13849,10 @@
         <v>416</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D134" s="50" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -13861,10 +13861,10 @@
         <v>417</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D135" s="50" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -13873,10 +13873,10 @@
         <v>418</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D136" s="50" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -13885,10 +13885,10 @@
         <v>419</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D137" s="50" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -13897,10 +13897,10 @@
         <v>420</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D138" s="50" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -13912,7 +13912,7 @@
         <v>673</v>
       </c>
       <c r="D139" s="50" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -13921,10 +13921,10 @@
         <v>422</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D140" s="50" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -13933,10 +13933,10 @@
         <v>423</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D141" s="50" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -13945,10 +13945,10 @@
         <v>424</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D142" s="50" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -13957,10 +13957,10 @@
         <v>425</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D143" s="50" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -13969,10 +13969,10 @@
         <v>426</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D144" s="50" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -13981,10 +13981,10 @@
         <v>427</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D145" s="50" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -13993,10 +13993,10 @@
         <v>428</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D146" s="50" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -14005,10 +14005,10 @@
         <v>429</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D147" s="50" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -14017,368 +14017,368 @@
         <v>430</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D148" s="57" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="112" t="s">
-        <v>1211</v>
+      <c r="A149" s="91" t="s">
+        <v>1209</v>
       </c>
       <c r="B149" s="7">
         <v>431</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="107"/>
+      <c r="A150" s="86"/>
       <c r="B150" s="1">
         <v>432</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="107"/>
+      <c r="A151" s="86"/>
       <c r="B151" s="1">
         <v>433</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="107"/>
+      <c r="A152" s="86"/>
       <c r="B152" s="1">
         <v>434</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="107"/>
+      <c r="A153" s="86"/>
       <c r="B153" s="1">
         <v>435</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="107"/>
+      <c r="A154" s="86"/>
       <c r="B154" s="1">
         <v>436</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="107"/>
+      <c r="A155" s="86"/>
       <c r="B155" s="1">
         <v>437</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="107"/>
+      <c r="A156" s="86"/>
       <c r="B156" s="1">
         <v>438</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="107"/>
+      <c r="A157" s="86"/>
       <c r="B157" s="1">
         <v>439</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="107"/>
+      <c r="A158" s="86"/>
       <c r="B158" s="1">
         <v>440</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D158" s="137" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="107"/>
+      <c r="A159" s="86"/>
       <c r="B159" s="1">
         <v>441</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D159" s="138"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="107"/>
+      <c r="A160" s="86"/>
       <c r="B160" s="1">
         <v>442</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D160" s="139"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="107"/>
+      <c r="A161" s="86"/>
       <c r="B161" s="1">
         <v>443</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="107"/>
+      <c r="A162" s="86"/>
       <c r="B162" s="1">
         <v>444</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="107"/>
+      <c r="A163" s="86"/>
       <c r="B163" s="1">
         <v>445</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="107"/>
+      <c r="A164" s="86"/>
       <c r="B164" s="1">
         <v>446</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="107"/>
+      <c r="A165" s="86"/>
       <c r="B165" s="1">
         <v>447</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" s="107"/>
+      <c r="A166" s="86"/>
       <c r="B166" s="1">
         <v>448</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="107"/>
+      <c r="A167" s="86"/>
       <c r="B167" s="1">
         <v>449</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" s="107"/>
+      <c r="A168" s="86"/>
       <c r="B168" s="1">
         <v>450</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" s="107"/>
+      <c r="A169" s="86"/>
       <c r="B169" s="1">
         <v>451</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="107"/>
+      <c r="A170" s="86"/>
       <c r="B170" s="1">
         <v>452</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="107"/>
+      <c r="A171" s="86"/>
       <c r="B171" s="1">
         <v>453</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="107"/>
+      <c r="A172" s="86"/>
       <c r="B172" s="1">
         <v>454</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="107"/>
+      <c r="A173" s="86"/>
       <c r="B173" s="1">
         <v>455</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="107"/>
+      <c r="A174" s="86"/>
       <c r="B174" s="1">
         <v>456</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="107"/>
+      <c r="A175" s="86"/>
       <c r="B175" s="1">
         <v>457</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="107"/>
+      <c r="A176" s="86"/>
       <c r="B176" s="1">
         <v>458</v>
       </c>
       <c r="C176" s="79" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D176" s="80" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="107"/>
+      <c r="A177" s="86"/>
       <c r="B177" s="1">
         <v>459</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="107"/>
+      <c r="A178" s="86"/>
       <c r="B178" s="9">
         <v>460</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -14386,10 +14386,10 @@
         <v>461</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -14397,10 +14397,10 @@
         <v>462</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -14408,10 +14408,10 @@
         <v>463</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
